--- a/Assets/_Project/Scripts/MasterData/MasterData.xlsx
+++ b/Assets/_Project/Scripts/MasterData/MasterData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Takap\Unity\Shop\Assets\_Project\Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Takap\Unity\Shop\Assets\_Project\Scripts\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B505AD05-7F0E-4DDF-838E-3B8B40AE5819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53574820-6B23-40FD-ADB3-4F67D3792716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="3260" windowWidth="29840" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6050" yWindow="3520" windowWidth="29840" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="設定" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,44 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Leaf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assets/icons/leaf.png</t>
+  </si>
+  <si>
+    <t>assets/icons/wood.png</t>
+  </si>
+  <si>
+    <t>assets/icons/tree.png</t>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tree1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -63,13 +101,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -80,6 +125,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6E23325-5635-465D-968D-4E88A0276A97}" name="テーブル1" displayName="テーブル1" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{E6E23325-5635-465D-968D-4E88A0276A97}"/>
+  <tableColumns count="3">
+    <tableColumn id="3" xr3:uid="{CD5EAFC2-25C1-4BFC-B675-5B7608D1C1F3}" name="#" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{54303EA5-2C74-4276-8494-3BC006740C6B}" name="Key"/>
+    <tableColumn id="2" xr3:uid="{F1F09598-9CF1-43E3-AE2D-4257C14C5D1D}" name="Address"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -285,14 +342,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="23.640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -300,7 +412,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB8FF34-CD0A-4262-9F34-A49F2D60F482}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <sheetData/>

--- a/Assets/_Project/Scripts/MasterData/MasterData.xlsx
+++ b/Assets/_Project/Scripts/MasterData/MasterData.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Takap\Unity\Shop\Assets\_Project\Scripts\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53574820-6B23-40FD-ADB3-4F67D3792716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05178D84-2237-4C1B-A9B5-F87CBBF3BDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6050" yWindow="3520" windowWidth="29840" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17910" yWindow="-14955" windowWidth="28665" windowHeight="15165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="設定" sheetId="1" r:id="rId1"/>
-    <sheet name="データ" sheetId="2" r:id="rId2"/>
+    <sheet name="設定" sheetId="2" r:id="rId1"/>
+    <sheet name="データ" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1"/>
@@ -36,28 +36,135 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Wood</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Leaf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>assets/icons/leaf.png</t>
-  </si>
-  <si>
-    <t>assets/icons/wood.png</t>
-  </si>
-  <si>
-    <t>assets/icons/tree.png</t>
-  </si>
-  <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Tree1</t>
+    <t>Assets/_Project/Textures/Icons/key_gold.png</t>
+  </si>
+  <si>
+    <t>Assets/_Project/Textures/Icons/key_devil.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assets/_Project/Textures/Icons/key_common.png</t>
+  </si>
+  <si>
+    <t>KeyGold</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KeyDevil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KeyCommon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前空間</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定値</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemInfo</t>
+  </si>
+  <si>
+    <t>Takap.Games.Shopping</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金色の鍵</t>
+    <rPh sb="0" eb="2">
+      <t>キンイロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悪魔の鍵</t>
+    <rPh sb="0" eb="2">
+      <t>アクマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常の鍵</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemInfo.Symbols.cs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムリソースを表します。</t>
+    <rPh sb="9" eb="10">
+      <t>アラワ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -81,15 +188,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,24 +216,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -127,22 +263,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6E23325-5635-465D-968D-4E88A0276A97}" name="テーブル1" displayName="テーブル1" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{E6E23325-5635-465D-968D-4E88A0276A97}"/>
-  <tableColumns count="3">
-    <tableColumn id="3" xr3:uid="{CD5EAFC2-25C1-4BFC-B675-5B7608D1C1F3}" name="#" dataDxfId="0"/>
-    <tableColumn id="1" xr3:uid="{54303EA5-2C74-4276-8494-3BC006740C6B}" name="Key"/>
-    <tableColumn id="2" xr3:uid="{F1F09598-9CF1-43E3-AE2D-4257C14C5D1D}" name="Address"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -150,34 +274,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="メイリオUI">
@@ -341,83 +465,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB8FF34-CD0A-4262-9F34-A49F2D60F482}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="23.640625" customWidth="1"/>
+    <col min="1" max="1" width="11.640625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB8FF34-CD0A-4262-9F34-A49F2D60F482}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.78515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="43.78515625" customWidth="1"/>
+    <col min="4" max="4" width="36.2109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
